--- a/documentação/backlog.xlsx
+++ b/documentação/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geovanna_muller\PROG_02\documentacao\documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geovanna_muller\PROG_02\Geovanna_dev1\Formula1_novo\documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Lista de tarefas</t>
   </si>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +919,9 @@
         <v>43</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
